--- a/nmadb/501239.xlsx
+++ b/nmadb/501239.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afshin\Desktop\Working folder\St. Michael\NMA\NMA_DA\To be verified\To be verified_From others\Verified_Completed\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -61,9 +56,6 @@
     <t xml:space="preserve">Hanania </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Barnes</t>
   </si>
   <si>
@@ -116,21 +108,6 @@
   </si>
   <si>
     <t>FOR/BUD 9/320</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>SMD1</t>
-  </si>
-  <si>
-    <t>se1</t>
-  </si>
-  <si>
-    <t>SMD2</t>
-  </si>
-  <si>
-    <t>se2</t>
   </si>
   <si>
     <t xml:space="preserve">NR </t>
@@ -155,11 +132,20 @@
       <t>: Trough FEV1 (reported predose values) at 12 weeks</t>
     </r>
   </si>
+  <si>
+    <t>effect=SMD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
@@ -221,6 +207,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -263,11 +250,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -546,22 +535,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -579,7 +568,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -653,7 +642,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -688,7 +676,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -864,30 +851,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="8"/>
     <col min="4" max="4" width="18.140625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="7.42578125" style="8" customWidth="1"/>
-    <col min="7" max="11" width="8.85546875" style="8"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.42578125" style="8" customWidth="1"/>
+    <col min="9" max="13" width="8.85546875" style="8"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -898,36 +885,32 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="8">
         <v>2003</v>
       </c>
@@ -943,32 +926,32 @@
       <c r="E2" s="51">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="17">
+        <v>0.16</v>
+      </c>
       <c r="G2" s="17">
-        <v>0.16</v>
-      </c>
-      <c r="H2" s="17">
         <v>0.03</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="37" t="s">
+      <c r="H2" s="12"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="38">
-        <v>1</v>
-      </c>
-      <c r="N2" s="39" t="s">
+      <c r="O2" s="38">
+        <v>1</v>
+      </c>
+      <c r="P2" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="9">
         <v>2006</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -979,30 +962,30 @@
       <c r="E3" s="51">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="17">
+        <v>0.17</v>
+      </c>
       <c r="G3" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="H3" s="17">
         <v>0.04</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41">
+      <c r="H3" s="11"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41">
         <v>2</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="P3" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="28">
         <v>2003</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="35">
         <v>3</v>
@@ -1013,30 +996,30 @@
       <c r="E4" s="52">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="36">
+      <c r="F4" s="36">
         <v>0.13</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44">
+      <c r="G4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44">
         <v>3</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="P4" s="45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="21">
         <v>2007</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="23">
         <v>4</v>
@@ -1047,30 +1030,30 @@
       <c r="E5" s="53">
         <v>4</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="41">
+        <v>30</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="41">
         <v>4</v>
       </c>
-      <c r="N5" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="P5" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="9">
         <v>2002</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -1081,30 +1064,30 @@
       <c r="E6" s="51">
         <v>4</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="17">
+        <v>0.2</v>
+      </c>
       <c r="G6" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="17">
         <v>0.03</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44">
+      <c r="H6" s="12"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44">
         <v>5</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="P6" s="47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="9">
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -1115,30 +1098,30 @@
       <c r="E7" s="51">
         <v>4</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="17">
+      <c r="F7" s="17">
         <v>0.15</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="41">
+      <c r="G7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="41">
         <v>6</v>
       </c>
-      <c r="N7" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+      <c r="P7" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="21">
         <v>2003</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="23">
         <v>7</v>
@@ -1149,30 +1132,30 @@
       <c r="E8" s="23">
         <v>6</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49">
+      <c r="F8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49">
         <v>7</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="P8" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="28">
         <v>2009</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="30">
         <v>8</v>
@@ -1183,428 +1166,591 @@
       <c r="E9" s="32">
         <v>6</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="28">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="30">
+        <v>8</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <v>7</v>
       </c>
-      <c r="G9" s="33">
-        <v>0.09</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="33">
+      <c r="F10" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="28">
+      <c r="G10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="28">
         <v>2008</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="30">
+        <v>9</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <v>6</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="A12" s="28">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30">
+        <v>9</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>7</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="30">
-        <v>9</v>
-      </c>
-      <c r="D10" s="31">
-        <v>1</v>
-      </c>
-      <c r="E10" s="32">
-        <v>6</v>
-      </c>
-      <c r="F10" s="32">
-        <v>7</v>
-      </c>
-      <c r="G10" s="33">
-        <v>0.08</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="33">
-        <v>0.06</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="17">
+      <c r="F13" s="17">
         <v>0.18</v>
       </c>
-      <c r="H11" s="17">
+      <c r="G13" s="17">
         <v>0.02</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8">
-        <v>11</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="17">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="H13" s="11"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="5"/>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="9">
         <v>2008</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1">
+      <c r="A16" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="C18" s="11">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="17">
-        <v>0.16</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="F19" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11">
+        <v>15</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G20" s="17">
         <v>0.03</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="9">
+      <c r="H20" s="11"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9">
         <v>2010</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11">
-        <v>14</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="C21" s="11">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
         <v>2</v>
       </c>
-      <c r="G15" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0.17</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="A16" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="11">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="F21" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="17">
         <v>0.03</v>
       </c>
-      <c r="I16" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="3:9" ht="15" customHeight="1">
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="3:11">
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="3:9">
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="3:11">
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="3:9">
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="3:11">
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" customHeight="1">
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="3:11">
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="C37" s="11"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="3:11" ht="15" customHeight="1">
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="11"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="3:11">
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="3:9">
-      <c r="C39" s="11"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="3:11">
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="3:9">
-      <c r="C40" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="3:11" ht="15" customHeight="1">
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="3:9">
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="3:9" ht="15" customHeight="1">
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="12"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="3:11" ht="15" customHeight="1">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="K46" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,12 +1764,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1635,12 +1781,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
